--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.2055822062632222</v>
+        <v>0.1173557049434445</v>
       </c>
       <c r="R2">
-        <v>1.850239856369</v>
+        <v>1.056201344491</v>
       </c>
       <c r="S2">
-        <v>0.001434298463975272</v>
+        <v>0.0009463157329718295</v>
       </c>
       <c r="T2">
-        <v>0.001434298463975273</v>
+        <v>0.0009463157329718295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
         <v>1.261723641429333</v>
@@ -638,10 +638,10 @@
         <v>11.355512772864</v>
       </c>
       <c r="S3">
-        <v>0.008802747639288884</v>
+        <v>0.01017410217187556</v>
       </c>
       <c r="T3">
-        <v>0.008802747639288885</v>
+        <v>0.01017410217187556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>1.045203506164555</v>
+        <v>0.795345643802889</v>
       </c>
       <c r="R4">
-        <v>9.406831555481</v>
+        <v>7.158110794226</v>
       </c>
       <c r="S4">
-        <v>0.007292137829836974</v>
+        <v>0.006413391630547449</v>
       </c>
       <c r="T4">
-        <v>0.007292137829836978</v>
+        <v>0.006413391630547449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.4023515589548889</v>
+        <v>0.3338156110826666</v>
       </c>
       <c r="R5">
-        <v>3.621164030594</v>
+        <v>3.004340499744</v>
       </c>
       <c r="S5">
-        <v>0.002807111731489831</v>
+        <v>0.002691773398075258</v>
       </c>
       <c r="T5">
-        <v>0.002807111731489832</v>
+        <v>0.002691773398075258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>0.8802682844353334</v>
+        <v>0.775347868514889</v>
       </c>
       <c r="R6">
-        <v>7.922414559918001</v>
+        <v>6.978130816634</v>
       </c>
       <c r="S6">
-        <v>0.006141423770086343</v>
+        <v>0.006252136501207213</v>
       </c>
       <c r="T6">
-        <v>0.006141423770086345</v>
+        <v>0.006252136501207213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N7">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q7">
-        <v>7.558764975162667</v>
+        <v>4.314887987077333</v>
       </c>
       <c r="R7">
-        <v>68.028884776464</v>
+        <v>38.833991883696</v>
       </c>
       <c r="S7">
-        <v>0.05273571672610948</v>
+        <v>0.03479376132715669</v>
       </c>
       <c r="T7">
-        <v>0.05273571672610949</v>
+        <v>0.03479376132715669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q8">
         <v>46.390554136576</v>
@@ -948,10 +948,10 @@
         <v>417.514987229184</v>
       </c>
       <c r="S8">
-        <v>0.3236559318555966</v>
+        <v>0.3740773510915332</v>
       </c>
       <c r="T8">
-        <v>0.3236559318555967</v>
+        <v>0.3740773510915332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N9">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O9">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P9">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q9">
-        <v>38.42962772857067</v>
+        <v>29.24295300065067</v>
       </c>
       <c r="R9">
-        <v>345.866649557136</v>
+        <v>263.186577005856</v>
       </c>
       <c r="S9">
-        <v>0.2681144298629461</v>
+        <v>0.2358050383354399</v>
       </c>
       <c r="T9">
-        <v>0.2681144298629462</v>
+        <v>0.2358050383354399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N10">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q10">
-        <v>14.79350244756267</v>
+        <v>12.273599914496</v>
       </c>
       <c r="R10">
-        <v>133.141522028064</v>
+        <v>110.462399230464</v>
       </c>
       <c r="S10">
-        <v>0.1032107701489797</v>
+        <v>0.09897005607768766</v>
       </c>
       <c r="T10">
-        <v>0.1032107701489797</v>
+        <v>0.09897005607768766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N11">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O11">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P11">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q11">
-        <v>32.36535495011201</v>
+        <v>28.50768273492267</v>
       </c>
       <c r="R11">
-        <v>291.288194551008</v>
+        <v>256.569144614304</v>
       </c>
       <c r="S11">
-        <v>0.2258054319716907</v>
+        <v>0.2298760737335052</v>
       </c>
       <c r="T11">
-        <v>0.2258054319716907</v>
+        <v>0.2298760737335052</v>
       </c>
     </row>
   </sheetData>
